--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F0DC33-1D3A-4972-8470-19CB641A042C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905A6E5E-784D-4D32-B9B7-16A6BB14F1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="3720" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자원봉사활동의이해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>생활과한의학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현대인의정신건강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인간학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +98,14 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원봉사활동의이해(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대인의정신건강(수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,12 +529,12 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="6.25" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -542,49 +542,49 @@
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="5"/>
@@ -594,9 +594,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -613,10 +615,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -635,10 +637,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -657,12 +659,14 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -679,12 +683,14 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -701,12 +707,14 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -723,12 +731,14 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -745,10 +755,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905A6E5E-784D-4D32-B9B7-16A6BB14F1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009BDF2E-EC57-4308-B0BC-3B496340FB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="-23340" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,9 @@
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -642,7 +644,9 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -760,7 +764,9 @@
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009BDF2E-EC57-4308-B0BC-3B496340FB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B1F1E-5348-41AA-9AB1-6145AC27F4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23340" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -599,7 +599,9 @@
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -671,7 +673,9 @@
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -695,7 +699,9 @@
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -719,7 +725,9 @@
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B1F1E-5348-41AA-9AB1-6145AC27F4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AFEDFC-C213-4F1F-8AB6-77C93AF33367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23340" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -625,7 +625,9 @@
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -649,7 +651,9 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -751,7 +755,9 @@
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AFEDFC-C213-4F1F-8AB6-77C93AF33367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEAD256-E824-4817-9013-1731ABB7862A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23340" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="1905" yWindow="1890" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -602,7 +602,9 @@
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -680,7 +682,9 @@
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -706,7 +710,9 @@
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -732,7 +738,9 @@
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -781,7 +789,9 @@
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEAD256-E824-4817-9013-1731ABB7862A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0224C755-D651-4332-8B3C-83D3BC5723DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1890" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="1905" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -792,7 +792,9 @@
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0224C755-D651-4332-8B3C-83D3BC5723DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83256FFF-FDAE-410F-B1E0-F9DB6E8F218E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="7080" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -630,7 +630,9 @@
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -766,7 +768,9 @@
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83256FFF-FDAE-410F-B1E0-F9DB6E8F218E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8353AF-6830-40DF-8961-0D2FEAD916D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -658,7 +658,9 @@
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8353AF-6830-40DF-8961-0D2FEAD916D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24556805-F8CC-4828-9AAB-1A380D64005F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>현대인의정신건강(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +533,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -689,7 +693,9 @@
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\git\TIL\학점은행\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24556805-F8CC-4828-9AAB-1A380D64005F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D39DC5-F957-4B72-B92E-A06CB7D94773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="7080" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,7 +609,9 @@
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -723,7 +725,9 @@
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -751,7 +755,9 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D39DC5-F957-4B72-B92E-A06CB7D94773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986B958A-A10E-403B-A3FF-C00580D6C36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -813,7 +813,9 @@
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986B958A-A10E-403B-A3FF-C00580D6C36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706ADF1E-0AC5-46C8-84DB-2F4D66E35B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="-20505" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,9 +612,15 @@
       <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -639,9 +645,15 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -667,9 +679,15 @@
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -698,8 +716,12 @@
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -728,8 +750,12 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -758,8 +784,12 @@
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -785,9 +815,15 @@
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -816,7 +852,9 @@
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706ADF1E-0AC5-46C8-84DB-2F4D66E35B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16DB6C8-90C8-424E-AA36-60B1FEFF71A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20505" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="9060" yWindow="1050" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,7 +654,9 @@
       <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -688,7 +690,9 @@
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -722,7 +726,9 @@
       <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -756,7 +762,9 @@
       <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -790,7 +798,9 @@
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -824,7 +834,9 @@
       <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -855,8 +867,12 @@
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16DB6C8-90C8-424E-AA36-60B1FEFF71A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8F8A42-39D5-42EE-908F-A4931D788E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="1050" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="8040" yWindow="1230" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,9 @@
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -765,7 +767,9 @@
       <c r="I6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -801,7 +805,9 @@
       <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8F8A42-39D5-42EE-908F-A4931D788E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F623869-D507-4176-A3AC-E516F6F7487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="1230" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="9060" yWindow="1080" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -659,7 +659,9 @@
       <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F623869-D507-4176-A3AC-E516F6F7487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FF0CCF-7C8D-4097-B727-4DC8F61C661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="1080" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="3225" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="25">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,12 +624,24 @@
       <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -662,11 +674,21 @@
       <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -697,12 +719,24 @@
       <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -733,13 +767,27 @@
       <c r="I5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -772,12 +820,24 @@
       <c r="J6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -810,12 +870,24 @@
       <c r="J7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -845,13 +917,27 @@
       <c r="I8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -881,12 +967,24 @@
       <c r="I9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">

--- a/학점은행/학점은행시간표.xlsx
+++ b/학점은행/학점은행시간표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FF0CCF-7C8D-4097-B727-4DC8F61C661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E462C2-B452-4A49-B146-AA4C3E1922EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="-17580" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="25">
   <si>
     <t>경영혁신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -689,7 +689,9 @@
       <c r="O3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -737,7 +739,9 @@
       <c r="O4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
